--- a/natmiOut/OldD7/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Adam9-Itgb5.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>9.93088636957088</v>
+        <v>11.20127533333333</v>
       </c>
       <c r="H2">
-        <v>9.93088636957088</v>
+        <v>33.603826</v>
       </c>
       <c r="I2">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="J2">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>8.86031452708108</v>
+        <v>9.460162333333333</v>
       </c>
       <c r="N2">
-        <v>8.86031452708108</v>
+        <v>28.380487</v>
       </c>
       <c r="O2">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="P2">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="Q2">
-        <v>87.99077676710036</v>
+        <v>105.9658829936958</v>
       </c>
       <c r="R2">
-        <v>87.99077676710036</v>
+        <v>953.6929469432619</v>
       </c>
       <c r="S2">
-        <v>0.009280398738306881</v>
+        <v>0.009726376203357189</v>
       </c>
       <c r="T2">
-        <v>0.009280398738306881</v>
+        <v>0.009726376203357189</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>9.93088636957088</v>
+        <v>11.20127533333333</v>
       </c>
       <c r="H3">
-        <v>9.93088636957088</v>
+        <v>33.603826</v>
       </c>
       <c r="I3">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="J3">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>46.0976596177799</v>
+        <v>46.18256633333333</v>
       </c>
       <c r="N3">
-        <v>46.0976596177799</v>
+        <v>138.547699</v>
       </c>
       <c r="O3">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="P3">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="Q3">
-        <v>457.7906195673283</v>
+        <v>517.3036410995971</v>
       </c>
       <c r="R3">
-        <v>457.7906195673283</v>
+        <v>4655.732769896374</v>
       </c>
       <c r="S3">
-        <v>0.04828323654292209</v>
+        <v>0.04748216768033243</v>
       </c>
       <c r="T3">
-        <v>0.04828323654292209</v>
+        <v>0.04748216768033243</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>9.93088636957088</v>
+        <v>11.20127533333333</v>
       </c>
       <c r="H4">
-        <v>9.93088636957088</v>
+        <v>33.603826</v>
       </c>
       <c r="I4">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="J4">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>45.6561722693769</v>
+        <v>51.40166966666666</v>
       </c>
       <c r="N4">
-        <v>45.6561722693769</v>
+        <v>154.205009</v>
       </c>
       <c r="O4">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934318</v>
       </c>
       <c r="P4">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934319</v>
       </c>
       <c r="Q4">
-        <v>453.4062588767351</v>
+        <v>575.7642545293816</v>
       </c>
       <c r="R4">
-        <v>453.4062588767351</v>
+        <v>5181.878290764434</v>
       </c>
       <c r="S4">
-        <v>0.04782081744723708</v>
+        <v>0.05284813928584386</v>
       </c>
       <c r="T4">
-        <v>0.04782081744723708</v>
+        <v>0.05284813928584386</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>9.93088636957088</v>
+        <v>11.20127533333333</v>
       </c>
       <c r="H5">
-        <v>9.93088636957088</v>
+        <v>33.603826</v>
       </c>
       <c r="I5">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="J5">
-        <v>0.1115258177305983</v>
+        <v>0.1186573945858706</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>5.8633715079388</v>
+        <v>8.365307333333334</v>
       </c>
       <c r="N5">
-        <v>5.8633715079388</v>
+        <v>25.095922</v>
       </c>
       <c r="O5">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463072</v>
       </c>
       <c r="P5">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463073</v>
       </c>
       <c r="Q5">
-        <v>58.22847618791969</v>
+        <v>93.70211068861911</v>
       </c>
       <c r="R5">
-        <v>58.22847618791969</v>
+        <v>843.318996197572</v>
       </c>
       <c r="S5">
-        <v>0.006141365002132256</v>
+        <v>0.008600711416337153</v>
       </c>
       <c r="T5">
-        <v>0.006141365002132256</v>
+        <v>0.008600711416337154</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>47.7323808856486</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H6">
-        <v>47.7323808856486</v>
+        <v>143.833961</v>
       </c>
       <c r="I6">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="J6">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.86031452708108</v>
+        <v>9.460162333333333</v>
       </c>
       <c r="N6">
-        <v>8.86031452708108</v>
+        <v>28.380487</v>
       </c>
       <c r="O6">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="P6">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="Q6">
-        <v>422.9239077732796</v>
+        <v>453.564206702112</v>
       </c>
       <c r="R6">
-        <v>422.9239077732796</v>
+        <v>4082.077860319007</v>
       </c>
       <c r="S6">
-        <v>0.04460583988805605</v>
+        <v>0.04163166466535704</v>
       </c>
       <c r="T6">
-        <v>0.04460583988805605</v>
+        <v>0.04163166466535704</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>47.7323808856486</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H7">
-        <v>47.7323808856486</v>
+        <v>143.833961</v>
       </c>
       <c r="I7">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="J7">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>46.0976596177799</v>
+        <v>46.18256633333333</v>
       </c>
       <c r="N7">
-        <v>46.0976596177799</v>
+        <v>138.547699</v>
       </c>
       <c r="O7">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="P7">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="Q7">
-        <v>2200.351046812852</v>
+        <v>2214.207148289527</v>
       </c>
       <c r="R7">
-        <v>2200.351046812852</v>
+        <v>19927.86433460574</v>
       </c>
       <c r="S7">
-        <v>0.2320713128004717</v>
+        <v>0.2032372222832125</v>
       </c>
       <c r="T7">
-        <v>0.2320713128004717</v>
+        <v>0.2032372222832125</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>47.7323808856486</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H8">
-        <v>47.7323808856486</v>
+        <v>143.833961</v>
       </c>
       <c r="I8">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="J8">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>45.6561722693769</v>
+        <v>51.40166966666666</v>
       </c>
       <c r="N8">
-        <v>45.6561722693769</v>
+        <v>154.205009</v>
       </c>
       <c r="O8">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934318</v>
       </c>
       <c r="P8">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934319</v>
       </c>
       <c r="Q8">
-        <v>2179.277804542686</v>
+        <v>2464.435250056739</v>
       </c>
       <c r="R8">
-        <v>2179.277804542686</v>
+        <v>22179.91725051065</v>
       </c>
       <c r="S8">
-        <v>0.229848715181022</v>
+        <v>0.2262051114347109</v>
       </c>
       <c r="T8">
-        <v>0.229848715181022</v>
+        <v>0.2262051114347109</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>47.7323808856486</v>
+        <v>47.94465366666667</v>
       </c>
       <c r="H9">
-        <v>47.7323808856486</v>
+        <v>143.833961</v>
       </c>
       <c r="I9">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="J9">
-        <v>0.5360440762681256</v>
+        <v>0.5078874966566524</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.8633715079388</v>
+        <v>8.365307333333334</v>
       </c>
       <c r="N9">
-        <v>5.8633715079388</v>
+        <v>25.095922</v>
       </c>
       <c r="O9">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463072</v>
       </c>
       <c r="P9">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463073</v>
       </c>
       <c r="Q9">
-        <v>279.8726820909946</v>
+        <v>401.0717629118936</v>
       </c>
       <c r="R9">
-        <v>279.8726820909946</v>
+        <v>3609.645866207043</v>
       </c>
       <c r="S9">
-        <v>0.0295182083985758</v>
+        <v>0.036813498273372</v>
       </c>
       <c r="T9">
-        <v>0.0295182083985758</v>
+        <v>0.03681349827337201</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>23.1810414869128</v>
+        <v>25.59984766666667</v>
       </c>
       <c r="H10">
-        <v>23.1810414869128</v>
+        <v>76.799543</v>
       </c>
       <c r="I10">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="J10">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.86031452708108</v>
+        <v>9.460162333333333</v>
       </c>
       <c r="N10">
-        <v>8.86031452708108</v>
+        <v>28.380487</v>
       </c>
       <c r="O10">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="P10">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="Q10">
-        <v>205.3913186393627</v>
+        <v>242.1787146352712</v>
       </c>
       <c r="R10">
-        <v>205.3913186393627</v>
+        <v>2179.608431717441</v>
       </c>
       <c r="S10">
-        <v>0.02166264925021803</v>
+        <v>0.022229053544793</v>
       </c>
       <c r="T10">
-        <v>0.02166264925021803</v>
+        <v>0.022229053544793</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>23.1810414869128</v>
+        <v>25.59984766666667</v>
       </c>
       <c r="H11">
-        <v>23.1810414869128</v>
+        <v>76.799543</v>
       </c>
       <c r="I11">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="J11">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>46.0976596177799</v>
+        <v>46.18256633333333</v>
       </c>
       <c r="N11">
-        <v>46.0976596177799</v>
+        <v>138.547699</v>
       </c>
       <c r="O11">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="P11">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="Q11">
-        <v>1068.591760049341</v>
+        <v>1182.266662989062</v>
       </c>
       <c r="R11">
-        <v>1068.591760049341</v>
+        <v>10640.39996690156</v>
       </c>
       <c r="S11">
-        <v>0.1127045127465561</v>
+        <v>0.1085176663662912</v>
       </c>
       <c r="T11">
-        <v>0.1127045127465561</v>
+        <v>0.1085176663662912</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>23.1810414869128</v>
+        <v>25.59984766666667</v>
       </c>
       <c r="H12">
-        <v>23.1810414869128</v>
+        <v>76.799543</v>
       </c>
       <c r="I12">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="J12">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>45.6561722693769</v>
+        <v>51.40166966666666</v>
       </c>
       <c r="N12">
-        <v>45.6561722693769</v>
+        <v>154.205009</v>
       </c>
       <c r="O12">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934318</v>
       </c>
       <c r="P12">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934319</v>
       </c>
       <c r="Q12">
-        <v>1058.357623510064</v>
+        <v>1315.874913278987</v>
       </c>
       <c r="R12">
-        <v>1058.357623510064</v>
+        <v>11842.87421951089</v>
       </c>
       <c r="S12">
-        <v>0.1116251170267279</v>
+        <v>0.1207812748927207</v>
       </c>
       <c r="T12">
-        <v>0.1116251170267279</v>
+        <v>0.1207812748927207</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>23.1810414869128</v>
+        <v>25.59984766666667</v>
       </c>
       <c r="H13">
-        <v>23.1810414869128</v>
+        <v>76.799543</v>
       </c>
       <c r="I13">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="J13">
-        <v>0.2603276798732102</v>
+        <v>0.2711844085184091</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.8633715079388</v>
+        <v>8.365307333333334</v>
       </c>
       <c r="N13">
-        <v>5.8633715079388</v>
+        <v>25.095922</v>
       </c>
       <c r="O13">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463072</v>
       </c>
       <c r="P13">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463073</v>
       </c>
       <c r="Q13">
-        <v>135.9190581787118</v>
+        <v>214.1505934181829</v>
       </c>
       <c r="R13">
-        <v>135.9190581787118</v>
+        <v>1927.355340763646</v>
       </c>
       <c r="S13">
-        <v>0.01433540084970822</v>
+        <v>0.01965641371460428</v>
       </c>
       <c r="T13">
-        <v>0.01433540084970822</v>
+        <v>0.01965641371460429</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>8.201318285323561</v>
+        <v>9.654369000000001</v>
       </c>
       <c r="H14">
-        <v>8.201318285323561</v>
+        <v>28.963107</v>
       </c>
       <c r="I14">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="J14">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>8.86031452708108</v>
+        <v>9.460162333333333</v>
       </c>
       <c r="N14">
-        <v>8.86031452708108</v>
+        <v>28.380487</v>
       </c>
       <c r="O14">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="P14">
-        <v>0.08321300777838372</v>
+        <v>0.08197024919772995</v>
       </c>
       <c r="Q14">
-        <v>72.66625954466804</v>
+        <v>91.33189796590101</v>
       </c>
       <c r="R14">
-        <v>72.66625954466804</v>
+        <v>821.987081693109</v>
       </c>
       <c r="S14">
-        <v>0.007664119901802761</v>
+        <v>0.008383154784222727</v>
       </c>
       <c r="T14">
-        <v>0.007664119901802761</v>
+        <v>0.008383154784222725</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>8.201318285323561</v>
+        <v>9.654369000000001</v>
       </c>
       <c r="H15">
-        <v>8.201318285323561</v>
+        <v>28.963107</v>
       </c>
       <c r="I15">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="J15">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>46.0976596177799</v>
+        <v>46.18256633333333</v>
       </c>
       <c r="N15">
-        <v>46.0976596177799</v>
+        <v>138.547699</v>
       </c>
       <c r="O15">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="P15">
-        <v>0.4329332662644541</v>
+        <v>0.4001618933742075</v>
       </c>
       <c r="Q15">
-        <v>378.0615787339198</v>
+        <v>445.863536748977</v>
       </c>
       <c r="R15">
-        <v>378.0615787339198</v>
+        <v>4012.771830740793</v>
       </c>
       <c r="S15">
-        <v>0.03987420417450417</v>
+        <v>0.04092483704437138</v>
       </c>
       <c r="T15">
-        <v>0.03987420417450417</v>
+        <v>0.04092483704437137</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>8.201318285323561</v>
+        <v>9.654369000000001</v>
       </c>
       <c r="H16">
-        <v>8.201318285323561</v>
+        <v>28.963107</v>
       </c>
       <c r="I16">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="J16">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>45.6561722693769</v>
+        <v>51.40166966666666</v>
       </c>
       <c r="N16">
-        <v>45.6561722693769</v>
+        <v>154.205009</v>
       </c>
       <c r="O16">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934318</v>
       </c>
       <c r="P16">
-        <v>0.4287869698723305</v>
+        <v>0.4453842886934319</v>
       </c>
       <c r="Q16">
-        <v>374.4408004707233</v>
+        <v>496.250686178107</v>
       </c>
       <c r="R16">
-        <v>374.4408004707233</v>
+        <v>4466.256175602963</v>
       </c>
       <c r="S16">
-        <v>0.03949232021734354</v>
+        <v>0.0455497630801564</v>
       </c>
       <c r="T16">
-        <v>0.03949232021734354</v>
+        <v>0.0455497630801564</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>8.201318285323561</v>
+        <v>9.654369000000001</v>
       </c>
       <c r="H17">
-        <v>8.201318285323561</v>
+        <v>28.963107</v>
       </c>
       <c r="I17">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="J17">
-        <v>0.09210242612806591</v>
+        <v>0.1022707002390678</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>5.8633715079388</v>
+        <v>8.365307333333334</v>
       </c>
       <c r="N17">
-        <v>5.8633715079388</v>
+        <v>25.095922</v>
       </c>
       <c r="O17">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463072</v>
       </c>
       <c r="P17">
-        <v>0.05506675608483171</v>
+        <v>0.07248356873463073</v>
       </c>
       <c r="Q17">
-        <v>48.08737596170366</v>
+        <v>80.76176379440601</v>
       </c>
       <c r="R17">
-        <v>48.08737596170366</v>
+        <v>726.855874149654</v>
       </c>
       <c r="S17">
-        <v>0.005071781834415437</v>
+        <v>0.007412945330317284</v>
       </c>
       <c r="T17">
-        <v>0.005071781834415437</v>
+        <v>0.007412945330317285</v>
       </c>
     </row>
   </sheetData>
